--- a/medicine/Psychotrope/Geist_(spiritueux)/Geist_(spiritueux).xlsx
+++ b/medicine/Psychotrope/Geist_(spiritueux)/Geist_(spiritueux).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un geist ou esprit est une boisson spiritueuse obtenue par macération de matières premières naturelles non fermentées dans de l'alcool neutre, suivie d'une distillation.
 Le geist peut être produit à partir d'une seule matière première ou plusieurs. 
@@ -515,14 +527,97 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Union européenne
-Conformément au règlement (UE) 2019/787 du Parlement européen et du Conseil du 17 avril 2019, il existe 44 catégories commerciales de boissons spiritueuses[1]. 
-Geist
-Le geist est la boisson spiritueuse produite par macération de fruits ou baies non fermentés ou de légumes, fruits à coque, autres matériels végétaux, tels que les herbes ou les pétales de rose, ou de champignons dans de l'alcool éthylique d'origine agricole, suivie d'une distillation[2]. 
-Le geist doit titrer un minimum de 37,5 % vol[2].
-Il ne peut être ni coloré ni aromatisé, et ne peut contenir plus de 10 grammes par litre de produits édulcorants (exprimés en sucre inverti)[2].
-Eau-de-vie obtenue par macération et distillation
-Un geist peut porter la dénomination d'« eau-de-vie obtenue par macération et distillation » uniquement s'il a été produit à partir des fruits, baies ou noix suivantes[3] :
+          <t>Union européenne</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conformément au règlement (UE) 2019/787 du Parlement européen et du Conseil du 17 avril 2019, il existe 44 catégories commerciales de boissons spiritueuses. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Geist_(spiritueux)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geist_(spiritueux)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Définition commerciale</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Union européenne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Geist</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le geist est la boisson spiritueuse produite par macération de fruits ou baies non fermentés ou de légumes, fruits à coque, autres matériels végétaux, tels que les herbes ou les pétales de rose, ou de champignons dans de l'alcool éthylique d'origine agricole, suivie d'une distillation. 
+Le geist doit titrer un minimum de 37,5 % vol.
+Il ne peut être ni coloré ni aromatisé, et ne peut contenir plus de 10 grammes par litre de produits édulcorants (exprimés en sucre inverti).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Geist_(spiritueux)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geist_(spiritueux)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Définition commerciale</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Union européenne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Eau-de-vie obtenue par macération et distillation</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un geist peut porter la dénomination d'« eau-de-vie obtenue par macération et distillation » uniquement s'il a été produit à partir des fruits, baies ou noix suivantes :
 aronia
 aronia noir
 châtaigne
